--- a/Jogos_do_Dia/2023-04-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH58"/>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.85</v>
+        <v>3.76</v>
       </c>
       <c r="I2" t="n">
         <v>1.03</v>
@@ -653,10 +653,10 @@
         <v>2.88</v>
       </c>
       <c r="M2" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="G3" t="n">
-        <v>4.05</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="I3" t="n">
         <v>1.05</v>
@@ -763,10 +763,10 @@
         <v>2.8</v>
       </c>
       <c r="M3" t="n">
-        <v>2.17</v>
+        <v>2.35</v>
       </c>
       <c r="N3" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="G4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I4" t="n">
         <v>1.08</v>
@@ -873,10 +873,10 @@
         <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="N4" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
         <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>4.47</v>
       </c>
       <c r="I5" t="n">
         <v>1.07</v>
@@ -983,10 +983,10 @@
         <v>2.8</v>
       </c>
       <c r="M5" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="N5" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>2.6</v>
       </c>
       <c r="M6" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="O6" t="n">
         <v>1.54</v>
@@ -1156,7 +1156,7 @@
         <v>3.14</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="7">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>2.32</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
       <c r="I7" t="n">
         <v>1.05</v>
@@ -1203,10 +1203,10 @@
         <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="N7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="I8" t="n">
         <v>1.06</v>
@@ -1313,10 +1313,10 @@
         <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="N8" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="G9" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>1.08</v>
@@ -1423,10 +1423,10 @@
         <v>2.62</v>
       </c>
       <c r="M9" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="N9" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1613,22 +1613,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Larissa</t>
+          <t>PAO Rouf</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1670,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W11" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.77</v>
+        <v>1.52</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.23</v>
+        <v>2.85</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -1723,22 +1723,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>AEK Athens II</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PAO Rouf</t>
+          <t>Egaleo</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1753,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1780,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>2.63</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.33</v>
+        <v>0.99</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.85</v>
+        <v>2.35</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1822,23 +1822,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Greece Super League 2</t>
+          <t>Paraguay Division Intermedia</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45022.36458333334</v>
+        <v>45022.45833333334</v>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AEK Athens II</t>
+          <t>Pastoreo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Egaleo</t>
+          <t>Fernando de la Mora</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1893,16 +1893,16 @@
         <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pastoreo</t>
+          <t>24 de Setiembre</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fernando de la Mora</t>
+          <t>Martín Ledesma</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -2042,87 +2042,87 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Paraguay Division Intermedia</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
         <v>45022.45833333334</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24 de Setiembre</t>
+          <t>Radnički Kragujevac</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Martín Ledesma</t>
+          <t>Radnički Niš</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2172,37 +2172,37 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="G16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>4.95</v>
+        <v>4.75</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="N16" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q16" t="n">
         <v>2.1</v>
@@ -2211,13 +2211,13 @@
         <v>1.67</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>1.93</v>
@@ -2262,33 +2262,33 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Croatia Second NL</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45022.45833333334</v>
+        <v>45022.47916666666</v>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Radnički Kragujevac</t>
+          <t>Hrvace</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Radnički Niš</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2315,34 +2315,34 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.8</v>
       </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.93</v>
-      </c>
       <c r="X17" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -2383,12 +2383,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hrvace</t>
+          <t>Osijek II</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Međimurje Čakovec</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2440,19 +2440,19 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="W18" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="X18" t="n">
-        <v>1.48</v>
+        <v>1.88</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.86</v>
+        <v>3.09</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -2482,87 +2482,87 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Croatia Second NL</t>
+          <t>Iran Persian Gulf Pro League</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45022.47916666666</v>
+        <v>45022.52083333334</v>
       </c>
       <c r="C19" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Osijek II</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Međimurje Čakovec</t>
+          <t>Naft Masjed Soleyman</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="V19" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="W19" t="n">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="X19" t="n">
-        <v>1.88</v>
+        <v>1.22</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.09</v>
+        <v>2.49</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
@@ -2596,83 +2596,83 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45022.52083333334</v>
+        <v>45022.54166666666</v>
       </c>
       <c r="C20" t="n">
         <v>25</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Persepolis</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Naft Masjed Soleyman</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="V20" t="n">
         <v>1.75</v>
       </c>
       <c r="W20" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="X20" t="n">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.27</v>
+        <v>0.71</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.49</v>
+        <v>1.79</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="G21" t="n">
         <v>3.1</v>
       </c>
       <c r="H21" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="I21" t="n">
         <v>1.07</v>
@@ -2746,7 +2746,7 @@
         <v>2.2</v>
       </c>
       <c r="N21" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="O21" t="n">
         <v>1.51</v>
@@ -2794,19 +2794,19 @@
         <v>1.91</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF21" t="n">
         <v>1.85</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="22">
@@ -2832,37 +2832,37 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.8</v>
+        <v>3.52</v>
       </c>
       <c r="G22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="L22" t="n">
         <v>3.5</v>
       </c>
-      <c r="H22" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="N22" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
         <v>1.73</v>
@@ -2871,13 +2871,13 @@
         <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V22" t="n">
         <v>1.25</v>
@@ -2942,37 +2942,37 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="G23" t="n">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>2.89</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M23" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="N23" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q23" t="n">
         <v>1.83</v>
@@ -2981,13 +2981,13 @@
         <v>1.83</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V23" t="n">
         <v>1.33</v>
@@ -3052,28 +3052,28 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.04</v>
+        <v>3.74</v>
       </c>
       <c r="G24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L24" t="n">
         <v>3.4</v>
       </c>
-      <c r="H24" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
       <c r="M24" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="N24" t="n">
         <v>1.75</v>
@@ -3091,13 +3091,13 @@
         <v>1.83</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="V24" t="n">
         <v>1.07</v>
@@ -3153,76 +3153,76 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Persepolis</t>
+          <t>Sanat Naft</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Mes Kerman</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="V25" t="n">
-        <v>1.75</v>
+        <v>0.33</v>
       </c>
       <c r="W25" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="X25" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -3256,29 +3256,29 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45022.54166666666</v>
+        <v>45022.625</v>
       </c>
       <c r="C26" t="n">
         <v>25</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sanat Naft</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Mes Kerman</t>
+          <t>Nassaji Mazandaran</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -3287,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0.33</v>
+        <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>0.33</v>
+        <v>0.58</v>
       </c>
       <c r="X26" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.68</v>
+        <v>0.96</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.74</v>
+        <v>2.14</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -3362,206 +3362,206 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Iran Persian Gulf Pro League</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45022.625</v>
+        <v>45022.64583333334</v>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Nassaji Mazandaran</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V27" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="W27" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="X27" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AD27" t="n">
         <v>1.18</v>
       </c>
-      <c r="Y27" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Poland 1. Liga</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
         <v>45022.64583333334</v>
       </c>
       <c r="C28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Ruch Chorzów</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Podbeskidzie</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.84</v>
+        <v>2.25</v>
       </c>
       <c r="G28" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="H28" t="n">
-        <v>3.95</v>
+        <v>2.9</v>
       </c>
       <c r="I28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="J28" t="n">
         <v>8.5</v>
       </c>
       <c r="K28" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L28" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="M28" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="N28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q28" t="n">
         <v>1.91</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>1.8</v>
       </c>
-      <c r="R28" t="n">
-        <v>1.95</v>
-      </c>
       <c r="S28" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="T28" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="U28" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="V28" t="n">
-        <v>1</v>
+        <v>2.08</v>
       </c>
       <c r="W28" t="n">
-        <v>0.77</v>
+        <v>1.5</v>
       </c>
       <c r="X28" t="n">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="Z28" t="n">
-        <v>3.46</v>
+        <v>3.54</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -3582,87 +3582,87 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Poland 1. Liga</t>
+          <t>Saudi Arabia Professional League</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45022.64583333334</v>
+        <v>45022.66666666666</v>
       </c>
       <c r="C29" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ruch Chorzów</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Podbeskidzie</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="G29" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="N29" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R29" t="n">
         <v>1.91</v>
       </c>
-      <c r="R29" t="n">
-        <v>1.8</v>
-      </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="V29" t="n">
-        <v>2.08</v>
+        <v>1.45</v>
       </c>
       <c r="W29" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="X29" t="n">
-        <v>2.01</v>
+        <v>1.44</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="Z29" t="n">
-        <v>3.54</v>
+        <v>2.78</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
@@ -3692,221 +3692,221 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Saudi Arabia Professional League</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45022.66666666666</v>
+        <v>45022.67708333334</v>
       </c>
       <c r="C30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V30" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="X30" t="n">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.78</v>
+        <v>2.95</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45022.67708333334</v>
+        <v>45022.79166666666</v>
       </c>
       <c r="C31" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Atlético Mineiro</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.73</v>
+        <v>1.34</v>
       </c>
       <c r="G31" t="n">
-        <v>2.81</v>
+        <v>4.7</v>
       </c>
       <c r="H31" t="n">
-        <v>2.42</v>
+        <v>9.5</v>
       </c>
       <c r="I31" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="J31" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="K31" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="L31" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M31" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="N31" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="O31" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="P31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q31" t="n">
-        <v>1.74</v>
-      </c>
       <c r="R31" t="n">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="S31" t="n">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="T31" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="U31" t="n">
-        <v>1.34</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>2</v>
       </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AG31" t="n">
         <v>2.1</v>
       </c>
-      <c r="X31" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="32">
@@ -3923,106 +3923,106 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.31</v>
+        <v>4.86</v>
       </c>
       <c r="G32" t="n">
-        <v>4.55</v>
+        <v>3.33</v>
       </c>
       <c r="H32" t="n">
-        <v>8.9</v>
+        <v>1.6</v>
       </c>
       <c r="I32" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="J32" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="K32" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="L32" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M32" t="n">
-        <v>1.91</v>
+        <v>2.21</v>
       </c>
       <c r="N32" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC32" t="n">
         <v>1.73</v>
       </c>
-      <c r="O32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U32" t="n">
-        <v>3</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>4.42</v>
-      </c>
       <c r="AD32" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AE32" t="n">
         <v>1.48</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AG32" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="AH32" t="n">
-        <v>2.7</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>South America Copa Libertadores</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4033,67 +4033,67 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>Huracán</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Guaraní</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.65</v>
+        <v>1.55</v>
       </c>
       <c r="G33" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="H33" t="n">
-        <v>1.7</v>
+        <v>5.36</v>
       </c>
       <c r="I33" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O33" t="n">
         <v>1.44</v>
       </c>
-      <c r="L33" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M33" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.5</v>
-      </c>
       <c r="P33" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -4105,60 +4105,60 @@
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>3.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>South America Copa Sudamericana</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
         <v>45022.79166666666</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Huracán</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Guaraní</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -4173,22 +4173,22 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -4200,19 +4200,19 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W34" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
@@ -4242,23 +4242,23 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Venezuela Primera División</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
         <v>45022.79166666666</v>
       </c>
       <c r="C35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Racing Córdoba</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Portuguesa</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4310,19 +4310,19 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W35" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="X35" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.08</v>
+        <v>1.48</v>
       </c>
       <c r="Z35" t="n">
-        <v>3.03</v>
+        <v>3.35</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
@@ -4352,23 +4352,23 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Venezuela Primera División</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
         <v>45022.79166666666</v>
       </c>
       <c r="C36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Ferro Carril Oeste</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Estudiantes Mérida</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4420,19 +4420,19 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>1.4</v>
+        <v>0.25</v>
       </c>
       <c r="W36" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
@@ -4462,23 +4462,23 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Venezuela Primera División</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
         <v>45022.79166666666</v>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Deportivo Táchira</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Zamora</t>
+          <t>Club Atlético Mitre</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -4530,19 +4530,19 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="W37" t="n">
         <v>1</v>
       </c>
       <c r="X37" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="Z37" t="n">
-        <v>2.84</v>
+        <v>3.36</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
@@ -4572,23 +4572,23 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Venezuela Primera División</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
         <v>45022.79166666666</v>
       </c>
       <c r="C38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Angostura</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Academia Puerto Cabello</t>
+          <t>Deportivo Maipú</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -4640,19 +4640,19 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="W38" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X38" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="Z38" t="n">
-        <v>3.11</v>
+        <v>3.09</v>
       </c>
       <c r="AA38" t="n">
         <v>0</v>
@@ -4682,23 +4682,23 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Venezuela Primera División</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
         <v>45022.79166666666</v>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Hermanos Colmenares</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>UCV</t>
+          <t>Villa Dálmine</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4750,19 +4750,19 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="W39" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>1.81</v>
+        <v>1.48</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="Z39" t="n">
-        <v>3.25</v>
+        <v>2.64</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
@@ -4792,23 +4792,23 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Venezuela Primera División</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
         <v>45022.79166666666</v>
       </c>
       <c r="C40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Metropolitanos</t>
+          <t>Estudiantes Caseros</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -4860,19 +4860,19 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="W40" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="X40" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>3.22</v>
+        <v>2.92</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
@@ -4902,23 +4902,23 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Venezuela Primera División</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
         <v>45022.79166666666</v>
       </c>
       <c r="C41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mineros de Guayana</t>
+          <t>Atlético Rafaela</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Deportivo La Guaira</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -4970,19 +4970,19 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Y41" t="n">
         <v>1.33</v>
       </c>
-      <c r="W41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X41" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>1.44</v>
-      </c>
       <c r="Z41" t="n">
-        <v>2.68</v>
+        <v>3.14</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
@@ -5023,12 +5023,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Racing Córdoba</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -5080,19 +5080,19 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="W42" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="X42" t="n">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.48</v>
+        <v>0.83</v>
       </c>
       <c r="Z42" t="n">
-        <v>3.35</v>
+        <v>2.52</v>
       </c>
       <c r="AA42" t="n">
         <v>0</v>
@@ -5133,12 +5133,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -5190,19 +5190,19 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W43" t="n">
         <v>1</v>
       </c>
-      <c r="W43" t="n">
-        <v>2</v>
-      </c>
       <c r="X43" t="n">
-        <v>1.69</v>
+        <v>1.1</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.83</v>
+        <v>1.59</v>
       </c>
       <c r="Z43" t="n">
-        <v>2.52</v>
+        <v>2.69</v>
       </c>
       <c r="AA43" t="n">
         <v>0</v>
@@ -5232,133 +5232,133 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45022.79166666666</v>
+        <v>45022.875</v>
       </c>
       <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB44" t="n">
         <v>10</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Tristán Suárez</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W44" t="n">
+      <c r="AC44" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AE44" t="n">
         <v>1.5</v>
       </c>
-      <c r="X44" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Ecuador Primera Categoría Serie B</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45022.79166666666</v>
+        <v>45022.875</v>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Estudiantes Caseros</t>
+          <t>Macará</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Guayaquil</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -5410,19 +5410,19 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="W45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>2.92</v>
+        <v>1.31</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
@@ -5452,1430 +5452,550 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45022.79166666666</v>
+        <v>45022.875</v>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Brown de Adrogué</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Villa Dálmine</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V46" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AE46" t="n">
         <v>1.48</v>
       </c>
-      <c r="Y46" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0</v>
-      </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45022.79166666666</v>
+        <v>45022.875</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Atlético Rafaela</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG47" t="n">
         <v>2.25</v>
       </c>
-      <c r="W47" t="n">
-        <v>1</v>
-      </c>
-      <c r="X47" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45022.79166666666</v>
+        <v>45022.875</v>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Botafogo</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF48" t="n">
         <v>1.8</v>
       </c>
-      <c r="W48" t="n">
-        <v>1</v>
-      </c>
-      <c r="X48" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45022.79166666666</v>
+        <v>45022.875</v>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Ferro Carril Oeste</t>
+          <t>Academia Puerto Cabello</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>8.15</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V49" t="n">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X49" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45022.79166666666</v>
+        <v>45022.875</v>
       </c>
       <c r="C50" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Melgar</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Club Atlético Mitre</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="V50" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="Z50" t="n">
-        <v>3.36</v>
+        <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Argentina Prim B Nacional</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>45022.79166666666</v>
-      </c>
-      <c r="C51" t="n">
-        <v>10</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Quilmes</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Deportivo Maipú</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" t="n">
-        <v>3</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X51" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>South America Copa Libertadores</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>45022.875</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Boca Juniors</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="J52" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P52" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S52" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Ecuador Primera Categoría Serie B</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>45022.875</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Macará</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Guayaquil</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0</v>
-      </c>
-      <c r="S53" t="n">
-        <v>0</v>
-      </c>
-      <c r="T53" t="n">
-        <v>0</v>
-      </c>
-      <c r="U53" t="n">
-        <v>0</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1</v>
-      </c>
-      <c r="W53" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>South America Copa Sudamericana</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>45022.875</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Tacuary</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Bragantino</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G54" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J54" t="n">
-        <v>11</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P54" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S54" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U54" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W54" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>South America Copa Sudamericana</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>45022.875</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Tigre</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J55" t="n">
-        <v>8</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="M55" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="N55" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P55" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S55" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U55" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V55" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>South America Copa Sudamericana</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>45022.875</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Botafogo</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="J56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K56" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M56" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="N56" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P56" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>2</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S56" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V56" t="n">
-        <v>0</v>
-      </c>
-      <c r="W56" t="n">
-        <v>0</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>South America Copa Sudamericana</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>45022.875</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Academia Puerto Cabello</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Deportes Tolima</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J57" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="M57" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="N57" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P57" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T57" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V57" t="n">
-        <v>3</v>
-      </c>
-      <c r="W57" t="n">
-        <v>3</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>South America Copa Libertadores</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>45022.875</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Melgar</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Olimpia</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="J58" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M58" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N58" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AH58" t="n">
         <v>3.18</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-04-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.21</v>
       </c>
       <c r="H2" t="n">
-        <v>3.76</v>
+        <v>3.16</v>
       </c>
       <c r="I2" t="n">
         <v>1.03</v>
@@ -653,10 +653,10 @@
         <v>2.88</v>
       </c>
       <c r="M2" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="N2" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -680,10 +680,10 @@
         <v>1.85</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="G3" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="I3" t="n">
         <v>1.05</v>
@@ -763,10 +763,10 @@
         <v>2.8</v>
       </c>
       <c r="M3" t="n">
-        <v>2.35</v>
+        <v>2.17</v>
       </c>
       <c r="N3" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="I4" t="n">
         <v>1.08</v>
@@ -873,10 +873,10 @@
         <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>2.17</v>
+        <v>2.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H5" t="n">
-        <v>4.47</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1.07</v>
@@ -983,10 +983,10 @@
         <v>2.8</v>
       </c>
       <c r="M5" t="n">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="N5" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45021.88194444445</v>
+        <v>45021.88888888889</v>
       </c>
       <c r="C6" t="n">
         <v>10</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
         <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>4.33</v>
+        <v>3.95</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1087,16 +1087,16 @@
         <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="L6" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M6" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N6" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="O6" t="n">
         <v>1.54</v>
@@ -1120,10 +1120,10 @@
         <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="X6" t="n">
         <v>1.5</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.32</v>
+        <v>3.26</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.21</v>
       </c>
       <c r="H7" t="n">
-        <v>2.85</v>
+        <v>1.9</v>
       </c>
       <c r="I7" t="n">
         <v>1.05</v>
@@ -1203,10 +1203,10 @@
         <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="N7" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1230,7 +1230,7 @@
         <v>1.28</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="I8" t="n">
         <v>1.06</v>
@@ -1313,10 +1313,10 @@
         <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="N8" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1340,10 +1340,10 @@
         <v>1.23</v>
       </c>
       <c r="V8" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
         <v>1.81</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.35</v>
+        <v>2.51</v>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.56</v>
       </c>
       <c r="I9" t="n">
         <v>1.08</v>
@@ -1423,10 +1423,10 @@
         <v>2.62</v>
       </c>
       <c r="M9" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="N9" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -1450,10 +1450,10 @@
         <v>1.45</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="N10" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1560,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="X10" t="n">
         <v>1.22</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="H11" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.68</v>
+        <v>3.9</v>
       </c>
       <c r="G12" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.58</v>
+        <v>1.83</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1753,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="N12" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="X12" t="n">
         <v>1.36</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1932,87 +1932,87 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Paraguay Division Intermedia</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
         <v>45022.45833333334</v>
       </c>
       <c r="C14" t="n">
+        <v>29</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Radnik Surdulica</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U14" t="n">
         <v>2</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>24 de Setiembre</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Martín Ledesma</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2042,87 +2042,87 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Paraguay Division Intermedia</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
         <v>45022.45833333334</v>
       </c>
       <c r="C15" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Radnički Kragujevac</t>
+          <t>24 de Setiembre</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Radnički Niš</t>
+          <t>Martín Ledesma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.05</v>
+        <v>4.37</v>
       </c>
       <c r="G15" t="n">
-        <v>3.13</v>
+        <v>3.66</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>1.54</v>
       </c>
       <c r="I15" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>8.65</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N15" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2152,87 +2152,87 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Croatia Second NL</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45022.45833333334</v>
+        <v>45022.47916666666</v>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Hrvace</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Radnik Surdulica</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="G16" t="n">
         <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="N16" t="n">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="W16" t="n">
-        <v>0.43</v>
+        <v>1.8</v>
       </c>
       <c r="X16" t="n">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -2273,22 +2273,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hrvace</t>
+          <t>Osijek II</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Međimurje Čakovec</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2330,19 +2330,19 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="W17" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="X17" t="n">
-        <v>1.48</v>
+        <v>1.88</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.86</v>
+        <v>3.09</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -2372,87 +2372,87 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Croatia Second NL</t>
+          <t>Iran Persian Gulf Pro League</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45022.47916666666</v>
+        <v>45022.52083333334</v>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Osijek II</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Međimurje Čakovec</t>
+          <t>Naft Masjed Soleyman</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>8.19</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="V18" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="W18" t="n">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="X18" t="n">
-        <v>1.88</v>
+        <v>1.22</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.09</v>
+        <v>2.49</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -2482,417 +2482,417 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Iran Persian Gulf Pro League</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45022.52083333334</v>
+        <v>45022.54166666666</v>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Naft Masjed Soleyman</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.38</v>
+        <v>3.3</v>
       </c>
       <c r="G19" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>2.19</v>
       </c>
       <c r="I19" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="J19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="K19" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="L19" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="M19" t="n">
         <v>2.2</v>
       </c>
       <c r="N19" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="O19" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="P19" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
-        <v>1.46</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="n">
-        <v>1.07</v>
+        <v>1.51</v>
       </c>
       <c r="T19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Y19" t="n">
         <v>1.17</v>
       </c>
-      <c r="U19" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y19" t="n">
+      <c r="Z19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD19" t="n">
         <v>1.27</v>
       </c>
-      <c r="Z19" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Iran Persian Gulf Pro League</t>
+          <t>Poland 1. Liga</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
         <v>45022.54166666666</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Persepolis</t>
+          <t>Chojniczanka Chojnice</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.37</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>8.25</v>
+        <v>2.12</v>
       </c>
       <c r="I20" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="J20" t="n">
-        <v>7.3</v>
+        <v>10.5</v>
       </c>
       <c r="K20" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="L20" t="n">
-        <v>2.67</v>
+        <v>3.5</v>
       </c>
       <c r="M20" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="O20" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.65</v>
+        <v>1.73</v>
       </c>
       <c r="R20" t="n">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.08</v>
+        <v>1.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="U20" t="n">
-        <v>2.8</v>
+        <v>1.18</v>
       </c>
       <c r="V20" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>0.5</v>
+        <v>1.67</v>
       </c>
       <c r="X20" t="n">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.71</v>
+        <v>1.74</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.79</v>
+        <v>3.14</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Poland 1. Liga</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
         <v>45022.54166666666</v>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Chrobry Głogów</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Sandecja Nowy Sącz</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="G21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L21" t="n">
         <v>3.1</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="J21" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.8</v>
-      </c>
       <c r="M21" t="n">
-        <v>2.2</v>
+        <v>1.82</v>
       </c>
       <c r="N21" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="O21" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R21" t="n">
         <v>1.83</v>
       </c>
       <c r="S21" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="U21" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="V21" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.38</v>
+        <v>0.75</v>
       </c>
       <c r="X21" t="n">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.7</v>
+        <v>2.98</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="AB21" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.45</v>
+        <v>1.82</v>
       </c>
       <c r="AH21" t="n">
-        <v>3.4</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Poland 1. Liga</t>
+          <t>Iran Persian Gulf Pro League</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
         <v>45022.54166666666</v>
       </c>
       <c r="C22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Chojniczanka Chojnice</t>
+          <t>Persepolis</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.52</v>
+        <v>1.39</v>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="H22" t="n">
-        <v>1.76</v>
+        <v>6.9</v>
       </c>
       <c r="I22" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="J22" t="n">
-        <v>10.5</v>
+        <v>7.3</v>
       </c>
       <c r="K22" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="L22" t="n">
-        <v>3.5</v>
+        <v>2.67</v>
       </c>
       <c r="M22" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="N22" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="P22" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.73</v>
+        <v>3.3</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="S22" t="n">
-        <v>1.8</v>
+        <v>1.08</v>
       </c>
       <c r="T22" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="U22" t="n">
-        <v>1.18</v>
+        <v>2.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="W22" t="n">
-        <v>1.67</v>
+        <v>0.5</v>
       </c>
       <c r="X22" t="n">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.74</v>
+        <v>0.71</v>
       </c>
       <c r="Z22" t="n">
-        <v>3.14</v>
+        <v>1.79</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -2922,87 +2922,87 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Poland 1. Liga</t>
+          <t>Iran Persian Gulf Pro League</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
         <v>45022.54166666666</v>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Chrobry Głogów</t>
+          <t>Sanat Naft</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sandecja Nowy Sącz</t>
+          <t>Mes Kerman</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L23" t="n">
         <v>2.02</v>
       </c>
-      <c r="G23" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J23" t="n">
-        <v>8</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.1</v>
-      </c>
       <c r="M23" t="n">
-        <v>1.82</v>
+        <v>2.69</v>
       </c>
       <c r="N23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O23" t="n">
         <v>1.72</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.44</v>
-      </c>
       <c r="P23" t="n">
-        <v>2.6</v>
+        <v>1.98</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="S23" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="T23" t="n">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="U23" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="W23" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="X23" t="n">
-        <v>1.69</v>
+        <v>1.06</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.29</v>
+        <v>0.68</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.98</v>
+        <v>1.74</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -3032,87 +3032,87 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Iran Persian Gulf Pro League</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45022.54166666666</v>
+        <v>45022.625</v>
       </c>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Čukarički</t>
+          <t>Nassaji Mazandaran</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.74</v>
+        <v>1.9</v>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="J24" t="n">
-        <v>9.5</v>
+        <v>5.3</v>
       </c>
       <c r="K24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="N24" t="n">
         <v>1.3</v>
       </c>
-      <c r="L24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.75</v>
-      </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="P24" t="n">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="R24" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>1.82</v>
+        <v>1.1</v>
       </c>
       <c r="T24" t="n">
         <v>1.3</v>
       </c>
       <c r="U24" t="n">
-        <v>1.24</v>
+        <v>1.75</v>
       </c>
       <c r="V24" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="W24" t="n">
-        <v>1.71</v>
+        <v>0.58</v>
       </c>
       <c r="X24" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.66</v>
+        <v>0.96</v>
       </c>
       <c r="Z24" t="n">
-        <v>3.02</v>
+        <v>2.14</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
@@ -3142,381 +3142,381 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Iran Persian Gulf Pro League</t>
+          <t>Poland 1. Liga</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45022.54166666666</v>
+        <v>45022.64583333334</v>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sanat Naft</t>
+          <t>Ruch Chorzów</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mes Kerman</t>
+          <t>Podbeskidzie</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.79</v>
+        <v>2.3</v>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="H25" t="n">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="I25" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="J25" t="n">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="K25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.8</v>
       </c>
-      <c r="L25" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="S25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
         <v>1.34</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Iran Persian Gulf Pro League</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45022.625</v>
+        <v>45022.64583333334</v>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nassaji Mazandaran</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R26" t="n">
         <v>1.95</v>
       </c>
-      <c r="G26" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H26" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V26" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="W26" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="X26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AD26" t="n">
         <v>1.18</v>
       </c>
-      <c r="Y26" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Saudi Arabia Professional League</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45022.64583333334</v>
+        <v>45022.66666666666</v>
       </c>
       <c r="C27" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="G27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L27" t="n">
         <v>3.6</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.3</v>
-      </c>
       <c r="M27" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="N27" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="O27" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
         <v>1.8</v>
       </c>
       <c r="R27" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S27" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="T27" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="U27" t="n">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="W27" t="n">
-        <v>0.77</v>
+        <v>0.3</v>
       </c>
       <c r="X27" t="n">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.46</v>
+        <v>2.78</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AB27" t="n">
         <v>8.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>2.91</v>
+        <v>3.22</v>
       </c>
       <c r="AD27" t="n">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.35</v>
+        <v>1.87</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.62</v>
+        <v>2.34</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.04</v>
+        <v>3.34</v>
       </c>
       <c r="AH27" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Poland 1. Liga</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45022.64583333334</v>
+        <v>45022.67708333334</v>
       </c>
       <c r="C28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ruch Chorzów</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Podbeskidzie</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.25</v>
+        <v>2.73</v>
       </c>
       <c r="G28" t="n">
-        <v>3.2</v>
+        <v>2.81</v>
       </c>
       <c r="H28" t="n">
-        <v>2.9</v>
+        <v>2.42</v>
       </c>
       <c r="I28" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="J28" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="K28" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="L28" t="n">
         <v>2.8</v>
       </c>
       <c r="M28" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="N28" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="O28" t="n">
         <v>1.47</v>
@@ -3525,284 +3525,284 @@
         <v>2.5</v>
       </c>
       <c r="Q28" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF28" t="n">
         <v>1.91</v>
       </c>
-      <c r="R28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X28" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Saudi Arabia Professional League</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45022.66666666666</v>
+        <v>45022.79166666666</v>
       </c>
       <c r="C29" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Atlético Mineiro</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.87</v>
+        <v>1.31</v>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>4.55</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>8.9</v>
       </c>
       <c r="I29" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="J29" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="K29" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="L29" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M29" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="N29" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="O29" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U29" t="n">
         <v>3</v>
       </c>
-      <c r="Q29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.03</v>
-      </c>
       <c r="V29" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.78</v>
+        <v>1.88</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45022.67708333334</v>
+        <v>45022.79166666666</v>
       </c>
       <c r="C30" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.9</v>
+        <v>4.65</v>
       </c>
       <c r="G30" t="n">
-        <v>2.91</v>
+        <v>3.45</v>
       </c>
       <c r="H30" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="I30" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="J30" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="K30" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="L30" t="n">
         <v>2.8</v>
       </c>
       <c r="M30" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="N30" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="O30" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P30" t="n">
         <v>2.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="S30" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="T30" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U30" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="AB30" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.03</v>
+        <v>1.73</v>
       </c>
       <c r="AD30" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AG30" t="n">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="AH30" t="n">
-        <v>3.4</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>South America Copa Libertadores</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -3813,40 +3813,40 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Huracán</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Guaraní</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="G31" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="H31" t="n">
-        <v>9.5</v>
+        <v>6.7</v>
       </c>
       <c r="I31" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="N31" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O31" t="n">
         <v>1.44</v>
@@ -3855,254 +3855,254 @@
         <v>2.63</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="S31" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>3</v>
       </c>
-      <c r="V31" t="n">
-        <v>2</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
       <c r="X31" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>4.42</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>South America Copa Libertadores</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
         <v>45022.79166666666</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.5</v>
       </c>
-      <c r="P32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AA32" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>3.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>South America Copa Sudamericana</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
         <v>45022.79166666666</v>
       </c>
       <c r="C33" t="n">
+        <v>10</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Club Atlético Mitre</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W33" t="n">
         <v>1</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Huracán</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Guaraní</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H33" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>3</v>
-      </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>3.36</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
@@ -4143,12 +4143,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Ferro Carril Oeste</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Tristán Suárez</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4200,19 +4200,19 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y34" t="n">
         <v>1.25</v>
       </c>
-      <c r="W34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Z34" t="n">
-        <v>2.96</v>
+        <v>2.61</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
@@ -4363,12 +4363,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Ferro Carril Oeste</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Deportivo Maipú</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4420,19 +4420,19 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X36" t="n">
-        <v>1.36</v>
+        <v>1.66</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.61</v>
+        <v>3.09</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
@@ -4473,12 +4473,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Club Atlético Mitre</t>
+          <t>Villa Dálmine</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -4530,19 +4530,19 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="W37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.78</v>
+        <v>1.48</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.58</v>
+        <v>1.16</v>
       </c>
       <c r="Z37" t="n">
-        <v>3.36</v>
+        <v>2.64</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
@@ -4583,12 +4583,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Estudiantes Caseros</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Deportivo Maipú</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -4640,19 +4640,19 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="W38" t="n">
+        <v>1</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Y38" t="n">
         <v>1.5</v>
       </c>
-      <c r="X38" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>1.43</v>
-      </c>
       <c r="Z38" t="n">
-        <v>3.09</v>
+        <v>2.92</v>
       </c>
       <c r="AA38" t="n">
         <v>0</v>
@@ -4693,12 +4693,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Brown de Adrogué</t>
+          <t>Atlético Rafaela</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Villa Dálmine</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4750,19 +4750,19 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>1.48</v>
+        <v>1.81</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="Z39" t="n">
-        <v>2.64</v>
+        <v>3.14</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
@@ -4803,12 +4803,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Estudiantes Caseros</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -4860,19 +4860,19 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="W40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>1.42</v>
+        <v>1.69</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.5</v>
+        <v>0.83</v>
       </c>
       <c r="Z40" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
@@ -4913,12 +4913,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Atlético Rafaela</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -4970,19 +4970,19 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="W41" t="n">
         <v>1</v>
       </c>
       <c r="X41" t="n">
-        <v>1.81</v>
+        <v>1.1</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.33</v>
+        <v>1.59</v>
       </c>
       <c r="Z41" t="n">
-        <v>3.14</v>
+        <v>2.69</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
@@ -5012,197 +5012,197 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45022.79166666666</v>
+        <v>45022.875</v>
       </c>
       <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB42" t="n">
         <v>10</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Patronato</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Almirante Brown</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1</v>
-      </c>
-      <c r="W42" t="n">
-        <v>2</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Ecuador Primera Categoría Serie B</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45022.79166666666</v>
+        <v>45022.875</v>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Macará</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Guayaquil</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="V43" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="W43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.1</v>
+        <v>1.31</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>2.69</v>
+        <v>1.31</v>
       </c>
       <c r="AA43" t="n">
         <v>0</v>
@@ -5232,7 +5232,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>South America Copa Libertadores</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -5243,210 +5243,210 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AE44" t="n">
         <v>1.48</v>
       </c>
-      <c r="I44" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="J44" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M44" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AF44" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="AG44" t="n">
-        <v>2.39</v>
+        <v>2.1</v>
       </c>
       <c r="AH44" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ecuador Primera Categoría Serie B</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
         <v>45022.875</v>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Macará</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Guayaquil</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="V45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="46">
@@ -5463,100 +5463,100 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Botafogo</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>6.45</v>
+        <v>3.43</v>
       </c>
       <c r="G46" t="n">
-        <v>3.79</v>
+        <v>3.3</v>
       </c>
       <c r="H46" t="n">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="J46" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="K46" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="L46" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="M46" t="n">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="N46" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="O46" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P46" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="S46" t="n">
-        <v>3.38</v>
+        <v>1.68</v>
       </c>
       <c r="T46" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="U46" t="n">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="V46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AE46" t="n">
         <v>1.5</v>
       </c>
-      <c r="Y46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1.48</v>
-      </c>
       <c r="AF46" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AG46" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AH46" t="n">
-        <v>2.7</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="47">
@@ -5573,40 +5573,40 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Academia Puerto Cabello</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.68</v>
+        <v>3.25</v>
       </c>
       <c r="G47" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H47" t="n">
-        <v>2.31</v>
+        <v>2.08</v>
       </c>
       <c r="I47" t="n">
         <v>1.09</v>
       </c>
       <c r="J47" t="n">
-        <v>8</v>
+        <v>8.15</v>
       </c>
       <c r="K47" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="L47" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="M47" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="N47" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="O47" t="n">
         <v>1.53</v>
@@ -5621,19 +5621,19 @@
         <v>1.67</v>
       </c>
       <c r="S47" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="T47" t="n">
         <v>1.28</v>
       </c>
       <c r="U47" t="n">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
@@ -5645,34 +5645,34 @@
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AB47" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC47" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AD47" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AE47" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AF47" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AG47" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AH47" t="n">
-        <v>3.08</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>South America Copa Sudamericana</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
@@ -5683,61 +5683,61 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Melgar</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Botafogo</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.65</v>
+        <v>2.37</v>
       </c>
       <c r="G48" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>2.81</v>
       </c>
       <c r="I48" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="J48" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="K48" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="L48" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="M48" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="N48" t="n">
         <v>1.62</v>
       </c>
       <c r="O48" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P48" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R48" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S48" t="n">
-        <v>1.68</v>
+        <v>1.36</v>
       </c>
       <c r="T48" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="U48" t="n">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -5755,247 +5755,27 @@
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
       <c r="AB48" t="n">
-        <v>8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC48" t="n">
-        <v>1.91</v>
+        <v>2.9</v>
       </c>
       <c r="AD48" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AE48" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AF48" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AG48" t="n">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="AH48" t="n">
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>South America Copa Sudamericana</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>45022.875</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Academia Puerto Cabello</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Deportes Tolima</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="G49" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J49" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="M49" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P49" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V49" t="n">
-        <v>3</v>
-      </c>
-      <c r="W49" t="n">
-        <v>3</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>South America Copa Libertadores</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>45022.875</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Melgar</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Olimpia</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="G50" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="J50" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M50" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P50" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V50" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AH50" t="n">
         <v>3.18</v>
       </c>
     </row>
